--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>نام کالا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آبرنگ 12 رنگ owner </t>
   </si>
   <si>
     <t xml:space="preserve">آبرنگ 12 رنگ آريا </t>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +386,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +412,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -447,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +468,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
